--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/TEXAS_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/TEXAS_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2056"/>
+  <dimension ref="A1:D2050"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C11">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C40">
@@ -953,7 +953,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C44">
@@ -1122,7 +1122,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C57">
@@ -1447,7 +1447,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C82">
@@ -1460,7 +1460,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C83">
@@ -1538,7 +1538,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C89">
@@ -1668,7 +1668,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C99">
@@ -1681,7 +1681,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C100">
@@ -1805,7 +1805,7 @@
         <v>170</v>
       </c>
       <c r="D109">
-        <v>0.0009100885998019219</v>
+        <v>0.000910088599801922</v>
       </c>
     </row>
     <row r="110">
@@ -2258,7 +2258,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C144">
@@ -2388,7 +2388,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C154">
@@ -2427,7 +2427,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C157">
@@ -2765,7 +2765,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C183">
@@ -2778,7 +2778,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C184">
@@ -2791,7 +2791,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C185">
@@ -2895,7 +2895,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C193">
@@ -3154,7 +3154,7 @@
         <v>1739</v>
       </c>
       <c r="D212">
-        <v>0.009309671029738483</v>
+        <v>0.009309671029738485</v>
       </c>
     </row>
     <row r="213">
@@ -3329,7 +3329,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C226">
@@ -3555,7 +3555,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C243">
@@ -3581,7 +3581,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -3638,7 +3638,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C249">
@@ -3838,7 +3838,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C264">
@@ -4020,7 +4020,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C278">
@@ -4072,7 +4072,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C282">
@@ -4163,7 +4163,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C289">
@@ -4176,7 +4176,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C290">
@@ -4189,7 +4189,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C291">
@@ -4202,7 +4202,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C292">
@@ -4332,19 +4332,19 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C302">
         <v>173</v>
       </c>
       <c r="D302">
-        <v>0.0009261489868572499</v>
+        <v>0.00092614898685725</v>
       </c>
     </row>
     <row r="303">
@@ -4376,7 +4376,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C305">
@@ -4389,7 +4389,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C306">
@@ -4402,7 +4402,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C307">
@@ -4493,7 +4493,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C314">
@@ -4597,7 +4597,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C322">
@@ -4675,7 +4675,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C328">
@@ -4766,7 +4766,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C335">
@@ -4870,7 +4870,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C343">
@@ -4883,7 +4883,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C344">
@@ -5104,7 +5104,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C361">
@@ -5286,7 +5286,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C375">
@@ -5299,7 +5299,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C376">
@@ -5325,7 +5325,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C378">
@@ -5351,7 +5351,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C380">
@@ -5481,7 +5481,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C390">
@@ -5650,7 +5650,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C403">
@@ -5728,7 +5728,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C409">
@@ -5741,7 +5741,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C410">
@@ -5754,7 +5754,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C411">
@@ -5767,7 +5767,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C412">
@@ -5941,7 +5941,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C425">
@@ -5954,7 +5954,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C426">
@@ -5967,7 +5967,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C427">
@@ -6071,7 +6071,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C435">
@@ -6123,7 +6123,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C439">
@@ -6227,7 +6227,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C447">
@@ -6279,7 +6279,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C451">
@@ -6305,7 +6305,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C453">
@@ -6331,7 +6331,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C455">
@@ -6357,7 +6357,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C457">
@@ -6383,7 +6383,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C459">
@@ -6448,7 +6448,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C464">
@@ -6531,7 +6531,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C470">
@@ -6570,7 +6570,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C473">
@@ -6583,7 +6583,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C474">
@@ -6635,7 +6635,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C478">
@@ -6661,7 +6661,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C480">
@@ -6674,7 +6674,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C481">
@@ -6713,7 +6713,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C484">
@@ -6726,7 +6726,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C485">
@@ -6739,7 +6739,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C486">
@@ -6752,7 +6752,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C487">
@@ -6817,7 +6817,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C492">
@@ -6830,7 +6830,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C493">
@@ -6882,7 +6882,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C497">
@@ -6895,7 +6895,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C498">
@@ -6973,7 +6973,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C504">
@@ -6986,7 +6986,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C505">
@@ -7012,7 +7012,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C507">
@@ -7025,7 +7025,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C508">
@@ -7051,7 +7051,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C510">
@@ -7090,7 +7090,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C513">
@@ -7259,7 +7259,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C526">
@@ -7285,7 +7285,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C528">
@@ -7311,7 +7311,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C530">
@@ -7331,13 +7331,13 @@
         <v>170</v>
       </c>
       <c r="D531">
-        <v>0.0009100885998019219</v>
+        <v>0.000910088599801922</v>
       </c>
     </row>
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C532">
@@ -7389,7 +7389,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C536">
@@ -7402,7 +7402,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C537">
@@ -7563,7 +7563,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C549">
@@ -7654,7 +7654,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C556">
@@ -7667,7 +7667,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C557">
@@ -7745,7 +7745,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C563">
@@ -7823,7 +7823,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C569">
@@ -7875,7 +7875,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C573">
@@ -7914,7 +7914,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C576">
@@ -8005,7 +8005,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C583">
@@ -8018,7 +8018,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C584">
@@ -8031,7 +8031,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C585">
@@ -8044,7 +8044,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C586">
@@ -8057,7 +8057,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C587">
@@ -8083,7 +8083,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C589">
@@ -8096,7 +8096,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C590">
@@ -8109,7 +8109,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C591">
@@ -8148,7 +8148,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C594">
@@ -8226,7 +8226,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C600">
@@ -8239,7 +8239,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C601">
@@ -8291,7 +8291,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C605">
@@ -8317,7 +8317,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C607">
@@ -8330,7 +8330,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C608">
@@ -8369,7 +8369,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C611">
@@ -8486,7 +8486,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C620">
@@ -8499,7 +8499,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C621">
@@ -8512,7 +8512,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C622">
@@ -8564,7 +8564,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C626">
@@ -8577,7 +8577,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C627">
@@ -8647,7 +8647,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C632">
@@ -8660,7 +8660,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C633">
@@ -8725,7 +8725,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C638">
@@ -8764,7 +8764,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C641">
@@ -8790,7 +8790,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C643">
@@ -8868,7 +8868,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C649">
@@ -8959,7 +8959,7 @@
     <row r="656">
       <c r="B656" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C656">
@@ -8972,7 +8972,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C657">
@@ -9089,7 +9089,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C666">
@@ -9180,7 +9180,7 @@
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C673">
@@ -9193,7 +9193,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C674">
@@ -9206,7 +9206,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C675">
@@ -9258,7 +9258,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C679">
@@ -9336,7 +9336,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C685">
@@ -9349,7 +9349,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C686">
@@ -9453,7 +9453,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C694">
@@ -9518,7 +9518,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C699">
@@ -9531,7 +9531,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C700">
@@ -9557,7 +9557,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C702">
@@ -9570,7 +9570,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C703">
@@ -9609,7 +9609,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C706">
@@ -9635,7 +9635,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C708">
@@ -9648,7 +9648,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C709">
@@ -9661,7 +9661,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C710">
@@ -9674,7 +9674,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C711">
@@ -9713,7 +9713,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C714">
@@ -9726,7 +9726,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C715">
@@ -9765,7 +9765,7 @@
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C718">
@@ -9817,7 +9817,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C722">
@@ -9830,7 +9830,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C723">
@@ -9869,7 +9869,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C726">
@@ -9882,7 +9882,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C727">
@@ -10038,7 +10038,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C739">
@@ -10051,7 +10051,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C740">
@@ -10064,7 +10064,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C741">
@@ -10077,7 +10077,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C742">
@@ -10142,7 +10142,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C747">
@@ -10155,7 +10155,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C748">
@@ -10194,7 +10194,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C751">
@@ -10207,7 +10207,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C752">
@@ -10220,7 +10220,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C753">
@@ -10563,7 +10563,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C779">
@@ -10589,7 +10589,7 @@
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C781">
@@ -11460,7 +11460,7 @@
     <row r="848">
       <c r="B848" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C848">
@@ -11803,7 +11803,7 @@
     <row r="874">
       <c r="B874" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C874">
@@ -11907,7 +11907,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C882">
@@ -11959,7 +11959,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C886">
@@ -12037,7 +12037,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C892">
@@ -12063,7 +12063,7 @@
     <row r="894">
       <c r="B894" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C894">
@@ -12167,7 +12167,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C902">
@@ -12224,7 +12224,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C906">
@@ -12237,7 +12237,7 @@
     <row r="907">
       <c r="B907" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C907">
@@ -12289,7 +12289,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C911">
@@ -12380,7 +12380,7 @@
     <row r="918">
       <c r="B918" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C918">
@@ -12619,7 +12619,7 @@
     <row r="936">
       <c r="B936" t="inlineStr">
         <is>
-          <t>Ciénega de Flores</t>
+          <t>Ciénega De Flores</t>
         </is>
       </c>
       <c r="C936">
@@ -12853,7 +12853,7 @@
     <row r="954">
       <c r="B954" t="inlineStr">
         <is>
-          <t>Lampazos de Naranjo</t>
+          <t>Lampazos De Naranjo</t>
         </is>
       </c>
       <c r="C954">
@@ -12944,7 +12944,7 @@
     <row r="961">
       <c r="B961" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C961">
@@ -13061,7 +13061,7 @@
     <row r="970">
       <c r="B970" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C970">
@@ -13170,7 +13170,7 @@
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C978">
@@ -13235,7 +13235,7 @@
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C983">
@@ -13287,7 +13287,7 @@
     <row r="987">
       <c r="B987" t="inlineStr">
         <is>
-          <t>Capulálpam de Méndez</t>
+          <t>Capulálpam De Méndez</t>
         </is>
       </c>
       <c r="C987">
@@ -13313,7 +13313,7 @@
     <row r="989">
       <c r="B989" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C989">
@@ -13326,7 +13326,7 @@
     <row r="990">
       <c r="B990" t="inlineStr">
         <is>
-          <t>Chiquihuitlán de Benito Juárez</t>
+          <t>Chiquihuitlán De Benito Juárez</t>
         </is>
       </c>
       <c r="C990">
@@ -13339,7 +13339,7 @@
     <row r="991">
       <c r="B991" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C991">
@@ -13378,7 +13378,7 @@
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C994">
@@ -13404,7 +13404,7 @@
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C996">
@@ -13443,7 +13443,7 @@
     <row r="999">
       <c r="B999" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C999">
@@ -13456,7 +13456,7 @@
     <row r="1000">
       <c r="B1000" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C1000">
@@ -13482,7 +13482,7 @@
     <row r="1002">
       <c r="B1002" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C1002">
@@ -13495,7 +13495,7 @@
     <row r="1003">
       <c r="B1003" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C1003">
@@ -13508,7 +13508,7 @@
     <row r="1004">
       <c r="B1004" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C1004">
@@ -13521,7 +13521,7 @@
     <row r="1005">
       <c r="B1005" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C1005">
@@ -13534,7 +13534,7 @@
     <row r="1006">
       <c r="B1006" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C1006">
@@ -13560,7 +13560,7 @@
     <row r="1008">
       <c r="B1008" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C1008">
@@ -13573,7 +13573,7 @@
     <row r="1009">
       <c r="B1009" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C1009">
@@ -13677,7 +13677,7 @@
     <row r="1017">
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C1017">
@@ -13703,7 +13703,7 @@
     <row r="1019">
       <c r="B1019" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C1019">
@@ -13729,7 +13729,7 @@
     <row r="1021">
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C1021">
@@ -13768,7 +13768,7 @@
     <row r="1024">
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C1024">
@@ -13781,7 +13781,7 @@
     <row r="1025">
       <c r="B1025" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C1025">
@@ -13794,7 +13794,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C1026">
@@ -13807,7 +13807,7 @@
     <row r="1027">
       <c r="B1027" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C1027">
@@ -13833,7 +13833,7 @@
     <row r="1029">
       <c r="B1029" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C1029">
@@ -13846,7 +13846,7 @@
     <row r="1030">
       <c r="B1030" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C1030">
@@ -13872,7 +13872,7 @@
     <row r="1032">
       <c r="B1032" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1032">
@@ -14002,7 +14002,7 @@
     <row r="1042">
       <c r="B1042" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C1042">
@@ -14197,7 +14197,7 @@
     <row r="1057">
       <c r="B1057" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C1057">
@@ -14262,7 +14262,7 @@
     <row r="1062">
       <c r="B1062" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C1062">
@@ -14496,7 +14496,7 @@
     <row r="1080">
       <c r="B1080" t="inlineStr">
         <is>
-          <t>San José del Peñasco</t>
+          <t>San José Del Peñasco</t>
         </is>
       </c>
       <c r="C1080">
@@ -14509,7 +14509,7 @@
     <row r="1081">
       <c r="B1081" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C1081">
@@ -14613,7 +14613,7 @@
     <row r="1089">
       <c r="B1089" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C1089">
@@ -14782,7 +14782,7 @@
     <row r="1102">
       <c r="B1102" t="inlineStr">
         <is>
-          <t>San Juan de los Cués</t>
+          <t>San Juan De Los Cués</t>
         </is>
       </c>
       <c r="C1102">
@@ -15107,7 +15107,7 @@
     <row r="1127">
       <c r="B1127" t="inlineStr">
         <is>
-          <t>San Martín de los Cansecos</t>
+          <t>San Martín De Los Cansecos</t>
         </is>
       </c>
       <c r="C1127">
@@ -15185,7 +15185,7 @@
     <row r="1133">
       <c r="B1133" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C1133">
@@ -15341,7 +15341,7 @@
     <row r="1145">
       <c r="B1145" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C1145">
@@ -15354,7 +15354,7 @@
     <row r="1146">
       <c r="B1146" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C1146">
@@ -15562,7 +15562,7 @@
     <row r="1162">
       <c r="B1162" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C1162">
@@ -15614,7 +15614,7 @@
     <row r="1166">
       <c r="B1166" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C1166">
@@ -15822,7 +15822,7 @@
     <row r="1182">
       <c r="B1182" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C1182">
@@ -15835,7 +15835,7 @@
     <row r="1183">
       <c r="B1183" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C1183">
@@ -16160,7 +16160,7 @@
     <row r="1208">
       <c r="B1208" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C1208">
@@ -16212,7 +16212,7 @@
     <row r="1212">
       <c r="B1212" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C1212">
@@ -16225,7 +16225,7 @@
     <row r="1213">
       <c r="B1213" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C1213">
@@ -16251,7 +16251,7 @@
     <row r="1215">
       <c r="B1215" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C1215">
@@ -16342,7 +16342,7 @@
     <row r="1222">
       <c r="B1222" t="inlineStr">
         <is>
-          <t>Santa María del Rosario</t>
+          <t>Santa María Del Rosario</t>
         </is>
       </c>
       <c r="C1222">
@@ -16355,7 +16355,7 @@
     <row r="1223">
       <c r="B1223" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C1223">
@@ -16446,7 +16446,7 @@
     <row r="1230">
       <c r="B1230" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C1230">
@@ -16758,7 +16758,7 @@
     <row r="1254">
       <c r="B1254" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C1254">
@@ -17096,7 +17096,7 @@
     <row r="1280">
       <c r="B1280" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1280">
@@ -17317,7 +17317,7 @@
     <row r="1297">
       <c r="B1297" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1297">
@@ -17330,7 +17330,7 @@
     <row r="1298">
       <c r="B1298" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1298">
@@ -17343,7 +17343,7 @@
     <row r="1299">
       <c r="B1299" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1299">
@@ -17356,7 +17356,7 @@
     <row r="1300">
       <c r="B1300" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C1300">
@@ -17369,7 +17369,7 @@
     <row r="1301">
       <c r="B1301" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C1301">
@@ -17382,7 +17382,7 @@
     <row r="1302">
       <c r="B1302" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C1302">
@@ -17395,7 +17395,7 @@
     <row r="1303">
       <c r="B1303" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1303">
@@ -17408,7 +17408,7 @@
     <row r="1304">
       <c r="B1304" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C1304">
@@ -17421,7 +17421,7 @@
     <row r="1305">
       <c r="B1305" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C1305">
@@ -17447,7 +17447,7 @@
     <row r="1307">
       <c r="B1307" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C1307">
@@ -17460,7 +17460,7 @@
     <row r="1308">
       <c r="B1308" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1308">
@@ -17473,7 +17473,7 @@
     <row r="1309">
       <c r="B1309" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C1309">
@@ -17486,7 +17486,7 @@
     <row r="1310">
       <c r="B1310" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1310">
@@ -17525,7 +17525,7 @@
     <row r="1313">
       <c r="B1313" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1313">
@@ -17538,7 +17538,7 @@
     <row r="1314">
       <c r="B1314" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C1314">
@@ -17551,7 +17551,7 @@
     <row r="1315">
       <c r="B1315" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C1315">
@@ -17590,7 +17590,7 @@
     <row r="1318">
       <c r="B1318" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1318">
@@ -17920,7 +17920,7 @@
     <row r="1343">
       <c r="B1343" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C1343">
@@ -17985,7 +17985,7 @@
     <row r="1348">
       <c r="B1348" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1348">
@@ -18115,7 +18115,7 @@
     <row r="1358">
       <c r="B1358" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1358">
@@ -18245,7 +18245,7 @@
     <row r="1368">
       <c r="B1368" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1368">
@@ -18258,7 +18258,7 @@
     <row r="1369">
       <c r="B1369" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1369">
@@ -18453,7 +18453,7 @@
     <row r="1384">
       <c r="B1384" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1384">
@@ -18466,7 +18466,7 @@
     <row r="1385">
       <c r="B1385" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1385">
@@ -18531,7 +18531,7 @@
     <row r="1390">
       <c r="B1390" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C1390">
@@ -18557,7 +18557,7 @@
     <row r="1392">
       <c r="B1392" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1392">
@@ -18596,7 +18596,7 @@
     <row r="1395">
       <c r="B1395" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1395">
@@ -18739,7 +18739,7 @@
     <row r="1406">
       <c r="B1406" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1406">
@@ -18752,7 +18752,7 @@
     <row r="1407">
       <c r="B1407" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C1407">
@@ -18895,7 +18895,7 @@
     <row r="1418">
       <c r="B1418" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1418">
@@ -18999,7 +18999,7 @@
     <row r="1426">
       <c r="B1426" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C1426">
@@ -19168,7 +19168,7 @@
     <row r="1439">
       <c r="B1439" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1439">
@@ -19220,7 +19220,7 @@
     <row r="1443">
       <c r="B1443" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1443">
@@ -19233,7 +19233,7 @@
     <row r="1444">
       <c r="B1444" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1444">
@@ -19324,7 +19324,7 @@
     <row r="1451">
       <c r="B1451" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1451">
@@ -19428,7 +19428,7 @@
     <row r="1459">
       <c r="B1459" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1459">
@@ -19441,7 +19441,7 @@
     <row r="1460">
       <c r="B1460" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C1460">
@@ -19454,7 +19454,7 @@
     <row r="1461">
       <c r="B1461" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1461">
@@ -19519,7 +19519,7 @@
     <row r="1466">
       <c r="B1466" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1466">
@@ -19545,7 +19545,7 @@
     <row r="1468">
       <c r="B1468" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1468">
@@ -19558,7 +19558,7 @@
     <row r="1469">
       <c r="B1469" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1469">
@@ -19571,7 +19571,7 @@
     <row r="1470">
       <c r="B1470" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1470">
@@ -19636,7 +19636,7 @@
     <row r="1475">
       <c r="B1475" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1475">
@@ -19779,7 +19779,7 @@
     <row r="1486">
       <c r="B1486" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C1486">
@@ -19805,7 +19805,7 @@
     <row r="1488">
       <c r="B1488" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1488">
@@ -19857,7 +19857,7 @@
     <row r="1492">
       <c r="B1492" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1492">
@@ -20096,7 +20096,7 @@
       </c>
       <c r="B1510" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1510">
@@ -20122,7 +20122,7 @@
     <row r="1512">
       <c r="B1512" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1512">
@@ -20200,7 +20200,7 @@
     <row r="1518">
       <c r="B1518" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1518">
@@ -20213,7 +20213,7 @@
     <row r="1519">
       <c r="B1519" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1519">
@@ -20252,7 +20252,7 @@
     <row r="1522">
       <c r="B1522" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1522">
@@ -20291,7 +20291,7 @@
     <row r="1525">
       <c r="B1525" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1525">
@@ -20470,7 +20470,7 @@
     <row r="1538">
       <c r="B1538" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1538">
@@ -20483,7 +20483,7 @@
     <row r="1539">
       <c r="B1539" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1539">
@@ -20548,7 +20548,7 @@
     <row r="1544">
       <c r="B1544" t="inlineStr">
         <is>
-          <t>Cerro de San Pedro</t>
+          <t>Cerro De San Pedro</t>
         </is>
       </c>
       <c r="C1544">
@@ -20574,7 +20574,7 @@
     <row r="1546">
       <c r="B1546" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1546">
@@ -20717,7 +20717,7 @@
     <row r="1557">
       <c r="B1557" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1557">
@@ -20795,7 +20795,7 @@
     <row r="1563">
       <c r="B1563" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1563">
@@ -20873,7 +20873,7 @@
     <row r="1569">
       <c r="B1569" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1569">
@@ -20899,14 +20899,14 @@
     <row r="1571">
       <c r="B1571" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1571">
         <v>181</v>
       </c>
       <c r="D1571">
-        <v>0.0009689766856714581</v>
+        <v>0.000968976685671458</v>
       </c>
     </row>
     <row r="1572">
@@ -21003,7 +21003,7 @@
     <row r="1579">
       <c r="B1579" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1579">
@@ -21055,7 +21055,7 @@
     <row r="1583">
       <c r="B1583" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1583">
@@ -21068,7 +21068,7 @@
     <row r="1584">
       <c r="B1584" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1584">
@@ -21081,7 +21081,7 @@
     <row r="1585">
       <c r="B1585" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1585">
@@ -21094,7 +21094,7 @@
     <row r="1586">
       <c r="B1586" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1586">
@@ -21107,7 +21107,7 @@
     <row r="1587">
       <c r="B1587" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1587">
@@ -21120,7 +21120,7 @@
     <row r="1588">
       <c r="B1588" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1588">
@@ -21754,7 +21754,7 @@
     <row r="1636">
       <c r="B1636" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1636">
@@ -21819,7 +21819,7 @@
     <row r="1641">
       <c r="B1641" t="inlineStr">
         <is>
-          <t>San Miguel de Horcasitas</t>
+          <t>San Miguel De Horcasitas</t>
         </is>
       </c>
       <c r="C1641">
@@ -22019,7 +22019,7 @@
     <row r="1656">
       <c r="B1656" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1656">
@@ -22609,14 +22609,14 @@
     <row r="1701">
       <c r="B1701" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1701">
         <v>176</v>
       </c>
       <c r="D1701">
-        <v>0.0009422093739125779</v>
+        <v>0.000942209373912578</v>
       </c>
     </row>
     <row r="1702">
@@ -22718,7 +22718,7 @@
       </c>
       <c r="B1709" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1709">
@@ -22744,7 +22744,7 @@
     <row r="1711">
       <c r="B1711" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1711">
@@ -22757,7 +22757,7 @@
     <row r="1712">
       <c r="B1712" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C1712">
@@ -22822,7 +22822,7 @@
     <row r="1717">
       <c r="B1717" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1717">
@@ -22913,7 +22913,7 @@
     <row r="1724">
       <c r="B1724" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1724">
@@ -22952,7 +22952,7 @@
     <row r="1727">
       <c r="B1727" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1727">
@@ -22991,7 +22991,7 @@
     <row r="1730">
       <c r="B1730" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1730">
@@ -23017,7 +23017,7 @@
     <row r="1732">
       <c r="B1732" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1732">
@@ -23082,7 +23082,7 @@
     <row r="1737">
       <c r="B1737" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1737">
@@ -23121,7 +23121,7 @@
     <row r="1740">
       <c r="B1740" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1740">
@@ -23277,7 +23277,7 @@
     <row r="1752">
       <c r="B1752" t="inlineStr">
         <is>
-          <t>Ziltlaltépec de Trinidad Sánchez Santos</t>
+          <t>Ziltlaltépec De Trinidad Sánchez Santos</t>
         </is>
       </c>
       <c r="C1752">
@@ -23412,7 +23412,7 @@
     <row r="1762">
       <c r="B1762" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1762">
@@ -23464,7 +23464,7 @@
     <row r="1766">
       <c r="B1766" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1766">
@@ -23594,7 +23594,7 @@
     <row r="1776">
       <c r="B1776" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1776">
@@ -23620,7 +23620,7 @@
     <row r="1778">
       <c r="B1778" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1778">
@@ -23672,7 +23672,7 @@
     <row r="1782">
       <c r="B1782" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1782">
@@ -23698,7 +23698,7 @@
     <row r="1784">
       <c r="B1784" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1784">
@@ -23802,7 +23802,7 @@
     <row r="1792">
       <c r="B1792" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C1792">
@@ -23971,7 +23971,7 @@
     <row r="1805">
       <c r="B1805" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1805">
@@ -23984,7 +23984,7 @@
     <row r="1806">
       <c r="B1806" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1806">
@@ -24192,7 +24192,7 @@
     <row r="1822">
       <c r="B1822" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1822">
@@ -24205,7 +24205,7 @@
     <row r="1823">
       <c r="B1823" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1823">
@@ -24257,7 +24257,7 @@
     <row r="1827">
       <c r="B1827" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1827">
@@ -24270,7 +24270,7 @@
     <row r="1828">
       <c r="B1828" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1828">
@@ -24283,7 +24283,7 @@
     <row r="1829">
       <c r="B1829" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1829">
@@ -24296,7 +24296,7 @@
     <row r="1830">
       <c r="B1830" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1830">
@@ -24439,7 +24439,7 @@
     <row r="1841">
       <c r="B1841" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1841">
@@ -24478,7 +24478,7 @@
     <row r="1844">
       <c r="B1844" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C1844">
@@ -24517,7 +24517,7 @@
     <row r="1847">
       <c r="B1847" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1847">
@@ -24530,7 +24530,7 @@
     <row r="1848">
       <c r="B1848" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1848">
@@ -24608,7 +24608,7 @@
     <row r="1854">
       <c r="B1854" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1854">
@@ -24647,7 +24647,7 @@
     <row r="1857">
       <c r="B1857" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1857">
@@ -24699,7 +24699,7 @@
     <row r="1861">
       <c r="B1861" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1861">
@@ -24725,7 +24725,7 @@
     <row r="1863">
       <c r="B1863" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1863">
@@ -24868,7 +24868,7 @@
     <row r="1874">
       <c r="B1874" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1874">
@@ -24920,7 +24920,7 @@
     <row r="1878">
       <c r="B1878" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1878">
@@ -24933,7 +24933,7 @@
     <row r="1879">
       <c r="B1879" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1879">
@@ -24985,7 +24985,7 @@
     <row r="1883">
       <c r="B1883" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1883">
@@ -25128,7 +25128,7 @@
     <row r="1894">
       <c r="B1894" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1894">
@@ -25167,7 +25167,7 @@
     <row r="1897">
       <c r="B1897" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1897">
@@ -25271,7 +25271,7 @@
     <row r="1905">
       <c r="B1905" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1905">
@@ -25570,7 +25570,7 @@
     <row r="1928">
       <c r="B1928" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1928">
@@ -25739,7 +25739,7 @@
     <row r="1941">
       <c r="B1941" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1941">
@@ -25895,7 +25895,7 @@
     <row r="1953">
       <c r="B1953" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1953">
@@ -25908,7 +25908,7 @@
     <row r="1954">
       <c r="B1954" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1954">
@@ -26477,7 +26477,7 @@
     <row r="1997">
       <c r="B1997" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1997">
@@ -26503,7 +26503,7 @@
     <row r="1999">
       <c r="B1999" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1999">
@@ -26529,7 +26529,7 @@
     <row r="2001">
       <c r="B2001" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C2001">
@@ -26672,7 +26672,7 @@
     <row r="2012">
       <c r="B2012" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C2012">
@@ -26763,7 +26763,7 @@
     <row r="2019">
       <c r="B2019" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C2019">
@@ -26828,7 +26828,7 @@
     <row r="2024">
       <c r="B2024" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C2024">
@@ -26841,7 +26841,7 @@
     <row r="2025">
       <c r="B2025" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C2025">
@@ -26854,7 +26854,7 @@
     <row r="2026">
       <c r="B2026" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C2026">
@@ -26997,7 +26997,7 @@
     <row r="2037">
       <c r="B2037" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C2037">
@@ -27010,7 +27010,7 @@
     <row r="2038">
       <c r="B2038" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C2038">
@@ -27036,7 +27036,7 @@
     <row r="2040">
       <c r="B2040" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C2040">
@@ -27075,7 +27075,7 @@
     <row r="2043">
       <c r="B2043" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C2043">
@@ -27174,41 +27174,6 @@
       </c>
       <c r="D2050">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2052">
-      <c r="A2052" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="2053">
-      <c r="A2053" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2054">
-      <c r="A2054" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="2055">
-      <c r="A2055" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="2056">
-      <c r="A2056" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
       </c>
     </row>
   </sheetData>
